--- a/biology/Virologie/Gita_Ramjee/Gita_Ramjee.xlsx
+++ b/biology/Virologie/Gita_Ramjee/Gita_Ramjee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gita Ramjee, née le 8 avril 1956 à Kampala et morte le 31 mars 2020[1],[2], est une scientifique et chercheuse sud-africaine ougandaise en matière de prévention du VIH. Elle a été reconnue en 2018 lorsqu'elle a reçu le prix "Femme scientifique exceptionnelle" du Partenariat pour les essais cliniques des pays européens et en développement[3]. Elle est décédée à Umhlanga, de complications liées au Covid-19[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gita Ramjee, née le 8 avril 1956 à Kampala et morte le 31 mars 2020 est une scientifique et chercheuse sud-africaine ougandaise en matière de prévention du VIH. Elle a été reconnue en 2018 lorsqu'elle a reçu le prix "Femme scientifique exceptionnelle" du Partenariat pour les essais cliniques des pays européens et en développement. Elle est décédée à Umhlanga, de complications liées au Covid-19.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Petite enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a grandi en Ouganda avant que sa famille ne soit conduite en exil sous Idi Amin Dada dans les années 1970[5]. Elle a fait ses études secondaires en Inde avant de fréquenter l'Université de Sunderland. Elle est diplômée en 1980 d'un bachelor en chimie et physiologie. Elle a épousé un étudiant sud-africain et indien et a déménagé à Durban où elle a commencé à travailler au Département de pédiatrie de la faculté de médecine de l'Université du KwaZulu-Natal. Après la naissance de ses deux enfants, elle a terminé sa maîtrise, puis un doctorat en 1994[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a grandi en Ouganda avant que sa famille ne soit conduite en exil sous Idi Amin Dada dans les années 1970. Elle a fait ses études secondaires en Inde avant de fréquenter l'Université de Sunderland. Elle est diplômée en 1980 d'un bachelor en chimie et physiologie. Elle a épousé un étudiant sud-africain et indien et a déménagé à Durban où elle a commencé à travailler au Département de pédiatrie de la faculté de médecine de l'Université du KwaZulu-Natal. Après la naissance de ses deux enfants, elle a terminé sa maîtrise, puis un doctorat en 1994.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au moment de sa mort, Gita Ramjee était directrice scientifique de l'Aurum Institute, un organisme de recherche sur le sida / tuberculose sans but lucratif[7], ainsi que la directrice de l'unité de recherche sur la prévention du South African Medical Research Council. Elle a reçu le Lifetime Achievement Award à la Conférence internationale sur les microbicides en 2012. Elle a été professeur honoraire à la London School of Hygiene and Tropical Medicine, à l'Université de Washington ainsi qu'à l'Université du Cap.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment de sa mort, Gita Ramjee était directrice scientifique de l'Aurum Institute, un organisme de recherche sur le sida / tuberculose sans but lucratif, ainsi que la directrice de l'unité de recherche sur la prévention du South African Medical Research Council. Elle a reçu le Lifetime Achievement Award à la Conférence internationale sur les microbicides en 2012. Elle a été professeur honoraire à la London School of Hygiene and Tropical Medicine, à l'Université de Washington ainsi qu'à l'Université du Cap.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa spécialisation en prévention et recherche de traitement contre le VIH l'a mené à réaliser des essais cliniques de phases I à III contre le VIH en tant que Clinical Trials Unit Principal Investigator[8]. En tant que chercheuse, elle a publié plus de 170 articles et a participé à de nombreux articles dans divers journaux scientifiques[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa spécialisation en prévention et recherche de traitement contre le VIH l'a mené à réaliser des essais cliniques de phases I à III contre le VIH en tant que Clinical Trials Unit Principal Investigator. En tant que chercheuse, elle a publié plus de 170 articles et a participé à de nombreux articles dans divers journaux scientifiques.
 </t>
         </is>
       </c>
